--- a/biology/Médecine/Mouvement_désaliéniste/Mouvement_désaliéniste.xlsx
+++ b/biology/Médecine/Mouvement_désaliéniste/Mouvement_désaliéniste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mouvement_d%C3%A9sali%C3%A9niste</t>
+          <t>Mouvement_désaliéniste</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mouvement désaliéniste est un courant de réformes dans le domaine de la santé mentale et de la psychiatrie apparu en France dans les années 1960.
 Ce mouvement, soutenu par le docteur Lucien Bonnafé, est parallèle au mouvement de l'antipsychiatrie. Il s'est développé autour d'infirmiers de secteur psychiatrique et de psychiatres en réaction à une vision carcérale et asilaire de l'hospitalisation des personnes en psychiatrie.
